--- a/Data Entry & Office Work Training For Job In Excel .xlsx
+++ b/Data Entry & Office Work Training For Job In Excel .xlsx
@@ -1,38 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\New-Tech\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prakash Thapa\Desktop\My program file\Data Entry &amp; Office Work Training In Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DCA708-223B-494A-8E0A-3593C7321236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="currency" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$D$11</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="106">
   <si>
     <t>S.No.</t>
   </si>
@@ -326,19 +334,44 @@
   </si>
   <si>
     <t>BASIC MENUS &amp; COMMANDS</t>
+  </si>
+  <si>
+    <t>sno</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>sumIf=#range (desig_range,Select_hr,salary_range);</t>
+  </si>
+  <si>
+    <t>hlookup</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>rowfil -ctrl r</t>
+  </si>
+  <si>
+    <t>columnfil -ctrl d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_ [$Rs.-4009]\ * #,##0.00_ ;_ [$Rs.-4009]\ * \-#,##0.00_ ;_ [$Rs.-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_ [$Rs.-4009]\ * #,##0.00_ ;_ [$Rs.-4009]\ * \-#,##0.00_ ;_ [$Rs.-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -459,19 +492,10 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -482,20 +506,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,6 +524,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -510,397 +544,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="88">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1021,376 +665,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1402,6 +676,1314 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.1111111111111109E-2"/>
+          <c:y val="7.407407407407407E-2"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.55569371536891221"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SALARY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$A$2:$C$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>MANAGER</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>OPRATOR</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MANAGER</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>OPRATOR</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>OPRATOR</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>MANAGER</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RAJ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SAM</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SURAJ</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>DEEPAK</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>VINOD</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SAM</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>RAJ</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>SURAJ</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>SANJAY</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>AZHAR</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00E9-47B8-B408-5FEB8594DD65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$A$2:$C$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>MANAGER</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>OPRATOR</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>MANAGER</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>OPRATOR</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>OPRATOR</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>MANAGER</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>HR</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>RAJ</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SAM</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SURAJ</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>DEEPAK</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>VINOD</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SAM</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>RAJ</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>SURAJ</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>SANJAY</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>AZHAR</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00E9-47B8-B408-5FEB8594DD65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="425253128"/>
+        <c:axId val="425254768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="425253128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425254768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="425254768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425253128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915EFAB0-8BB1-4B32-A39D-0A6A2AC93679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1666,160 +2248,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="3" max="3" width="67.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="24">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="20">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="24">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="20">
         <v>2</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="20">
         <v>3</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="20">
         <v>4</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="20">
         <v>5</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="20">
         <v>6</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="24">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="20">
         <v>7</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="24">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="20">
         <v>8</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="20">
         <v>9</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="24">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="20">
         <v>10</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="24">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="20">
         <v>11</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="20">
         <v>12</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="24">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="20">
         <v>13</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="20">
         <v>14</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="24">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="20">
         <v>15</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
@@ -1833,393 +2415,393 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" customWidth="1"/>
+    <col min="11" max="11" width="3.88671875" customWidth="1"/>
+    <col min="12" max="12" width="4.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="16" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>2018</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <v>50</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="10">
         <v>12</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="10">
         <v>43</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10">
         <v>44</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="10">
         <v>32</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="10">
         <v>34</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="12">
         <f>SUM(G3:L3)</f>
         <v>165</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="11">
         <f>AVERAGE(G3:L3)</f>
         <v>33</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="10">
         <f>MAX(G3:L3)</f>
         <v>44</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="10">
         <f>MIN(G3:L3)</f>
         <v>12</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="10">
         <f>COUNT(G3:L3)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>2018</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>50</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="10">
         <v>44</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="10">
         <v>11</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="10">
         <v>20</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="10">
         <v>47</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="10">
         <v>46</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="10">
         <v>26</v>
       </c>
-      <c r="M4" s="15">
-        <f t="shared" ref="M4:M7" si="0">SUM(G4:L4)</f>
+      <c r="M4" s="12">
+        <f>SUM(G4:L4)</f>
         <v>194</v>
       </c>
-      <c r="N4" s="14">
-        <f t="shared" ref="N4:N7" si="1">AVERAGE(G4:L4)</f>
+      <c r="N4" s="11">
+        <f>AVERAGE(G4:L4)</f>
         <v>32.333333333333336</v>
       </c>
-      <c r="O4" s="13">
-        <f t="shared" ref="O4:O7" si="2">MAX(G4:L4)</f>
+      <c r="O4" s="10">
+        <f>MAX(G4:L4)</f>
         <v>47</v>
       </c>
-      <c r="P4" s="13">
-        <f t="shared" ref="P4:P7" si="3">MIN(G4:L4)</f>
+      <c r="P4" s="10">
+        <f>MIN(G4:L4)</f>
         <v>11</v>
       </c>
-      <c r="Q4" s="13">
-        <f t="shared" ref="Q4:Q7" si="4">COUNT(G4:L4)</f>
+      <c r="Q4" s="10">
+        <f>COUNT(G4:L4)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>2018</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>50</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <v>36</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10">
         <v>33</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="10">
         <v>49</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10">
         <v>20</v>
       </c>
-      <c r="M5" s="15">
-        <f t="shared" si="0"/>
+      <c r="M5" s="12">
+        <f>SUM(G5:L5)</f>
         <v>138</v>
       </c>
-      <c r="N5" s="14">
-        <f t="shared" si="1"/>
+      <c r="N5" s="11">
+        <f>AVERAGE(G5:L5)</f>
         <v>34.5</v>
       </c>
-      <c r="O5" s="13">
-        <f t="shared" si="2"/>
+      <c r="O5" s="10">
+        <f>MAX(G5:L5)</f>
         <v>49</v>
       </c>
-      <c r="P5" s="13">
-        <f t="shared" si="3"/>
+      <c r="P5" s="10">
+        <f>MIN(G5:L5)</f>
         <v>20</v>
       </c>
-      <c r="Q5" s="13">
-        <f t="shared" si="4"/>
+      <c r="Q5" s="10">
+        <f>COUNT(G5:L5)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>2018</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <v>50</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="10">
         <v>13</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="10">
         <v>48</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="10">
         <v>40</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="10">
         <v>20</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="10">
         <v>47</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="10">
         <v>18</v>
       </c>
-      <c r="M6" s="15">
-        <f t="shared" si="0"/>
+      <c r="M6" s="12">
+        <f>SUM(G6:L6)</f>
         <v>186</v>
       </c>
-      <c r="N6" s="14">
-        <f t="shared" si="1"/>
+      <c r="N6" s="11">
+        <f>AVERAGE(G6:L6)</f>
         <v>31</v>
       </c>
-      <c r="O6" s="13">
-        <f t="shared" si="2"/>
+      <c r="O6" s="10">
+        <f>MAX(G6:L6)</f>
         <v>48</v>
       </c>
-      <c r="P6" s="13">
-        <f t="shared" si="3"/>
+      <c r="P6" s="10">
+        <f>MIN(G6:L6)</f>
         <v>13</v>
       </c>
-      <c r="Q6" s="13">
-        <f t="shared" si="4"/>
+      <c r="Q6" s="10">
+        <f>COUNT(G6:L6)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>2018</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>50</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="10">
         <v>34</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="10">
         <v>40</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="10">
         <v>19</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="10">
         <v>49</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="10">
         <v>17</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="10">
         <v>15</v>
       </c>
-      <c r="M7" s="15">
-        <f t="shared" si="0"/>
+      <c r="M7" s="12">
+        <f>SUM(G7:L7)</f>
         <v>174</v>
       </c>
-      <c r="N7" s="14">
-        <f t="shared" si="1"/>
+      <c r="N7" s="11">
+        <f>AVERAGE(G7:L7)</f>
         <v>29</v>
       </c>
-      <c r="O7" s="13">
-        <f t="shared" si="2"/>
+      <c r="O7" s="10">
+        <f>MAX(G7:L7)</f>
         <v>49</v>
       </c>
-      <c r="P7" s="13">
-        <f t="shared" si="3"/>
+      <c r="P7" s="10">
+        <f>MIN(G7:L7)</f>
         <v>15</v>
       </c>
-      <c r="Q7" s="13">
-        <f t="shared" si="4"/>
+      <c r="Q7" s="10">
+        <f>COUNT(G7:L7)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F10" s="11"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2233,457 +2815,729 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="E1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="4">
         <v>15000</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="4">
+        <v>15000</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>12000</v>
       </c>
-      <c r="F3" s="7">
+      <c r="E3" s="4">
+        <v>12000</v>
+      </c>
+      <c r="F3" s="4">
         <f>SUMIF(C1:C11,C2,D1:D11)</f>
         <v>57000</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <f>COUNTIF(C1:C11,C2)</f>
         <v>4</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="4">
         <f>COUNTIF(C1:C11,I3)</f>
         <v>4</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="4">
         <f>SUMIF(C1:C11,I3,D1:D11)</f>
         <v>57000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>16000</v>
       </c>
-      <c r="F4" s="7">
+      <c r="E4" s="4">
+        <v>16000</v>
+      </c>
+      <c r="F4" s="4">
         <f>SUMIF(C1:C11,C4,D1:D11)</f>
         <v>46300</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <f>COUNTIF(C1:C11,C7)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="I4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4">
+        <f>COUNTIF(C1:C11,C7)</f>
+        <v>3</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUMIF(C2:C11,C4,D2:D11)</f>
+        <v>46300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>14500</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="E5" s="4">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
+        <v>15400</v>
+      </c>
+      <c r="E6" s="4">
         <v>15400</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
+        <v>12800</v>
+      </c>
+      <c r="E7" s="4">
         <v>12800</v>
       </c>
       <c r="F7" t="str">
         <f>VLOOKUP(A4,A1:D11,3)</f>
         <v>OPRATOR</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="7" t="str">
+      <c r="I7" s="4" t="str">
         <f>VLOOKUP(I6,A1:D11,2)</f>
-        <v>SURAJ</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+        <v>VINOD</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7">
+        <f>SUMIF(C2:C11,C3,D2:D11)</f>
+        <v>43900</v>
+      </c>
+      <c r="O7">
+        <f>COUNTIF(C2:C11,C3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
+        <v>17500</v>
+      </c>
+      <c r="E8" s="4">
         <v>17500</v>
       </c>
       <c r="F8">
         <f>VLOOKUP(A8,A1:D11,4)</f>
         <v>17500</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="I8" s="4" t="str">
         <f>VLOOKUP(I6,A1:D11,3)</f>
-        <v>OPRATOR</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+        <v>MANAGER</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>16500</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="E9" s="4">
+        <v>16500</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <f>VLOOKUP(I6,A1:D11,4)</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4">
+        <v>14500</v>
+      </c>
+      <c r="E10" s="4">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4">
+        <v>13000</v>
+      </c>
+      <c r="E11" s="4">
+        <v>13000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" t="str">
+        <f>VLOOKUP(N11,A1:D11,2)</f>
+        <v>VINOD</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <f>VLOOKUP(N11,A1:D11,4)</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>6</v>
+      </c>
+      <c r="H14" s="4">
+        <v>7</v>
+      </c>
+      <c r="I14" s="4">
+        <v>8</v>
+      </c>
+      <c r="J14" s="4">
+        <v>9</v>
+      </c>
+      <c r="K14" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="4">
+        <v>15000</v>
+      </c>
+      <c r="C17" s="4">
+        <v>12000</v>
+      </c>
+      <c r="D17" s="4">
         <v>16000</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="E17" s="4">
         <v>14500</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="F17" s="4">
+        <v>15400</v>
+      </c>
+      <c r="G17" s="4">
+        <v>12800</v>
+      </c>
+      <c r="H17" s="4">
+        <v>17500</v>
+      </c>
+      <c r="I17" s="4">
+        <v>16500</v>
+      </c>
+      <c r="J17" s="4">
+        <v>14500</v>
+      </c>
+      <c r="K17" s="4">
         <v>13000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7">
-        <v>5</v>
-      </c>
-      <c r="G14" s="7">
-        <v>6</v>
-      </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>8</v>
-      </c>
-      <c r="J14" s="7">
-        <v>9</v>
-      </c>
-      <c r="K14" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="7">
-        <v>15000</v>
-      </c>
-      <c r="C17" s="7">
-        <v>12000</v>
-      </c>
-      <c r="D17" s="7">
-        <v>16000</v>
-      </c>
-      <c r="E17" s="7">
-        <v>14500</v>
-      </c>
-      <c r="F17" s="7">
-        <v>15400</v>
-      </c>
-      <c r="G17" s="7">
-        <v>12800</v>
-      </c>
-      <c r="H17" s="7">
-        <v>17500</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16500</v>
-      </c>
-      <c r="J17" s="7">
-        <v>14500</v>
-      </c>
-      <c r="K17" s="7">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F20">
         <f>HLOOKUP(G14,A14:K17,4)</f>
         <v>12800</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="7" t="str">
+      <c r="I20" s="4" t="str">
         <f>HLOOKUP(I19,A14:K17,2)</f>
-        <v>SAM</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="3" t="s">
+        <v>VINOD</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="7" t="str">
+      <c r="I21" s="4" t="str">
         <f>HLOOKUP(I19,A14:K17,3)</f>
-        <v>OPRATOR</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H22" s="3" t="s">
+        <v>MANAGER</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="4">
         <f>HLOOKUP(I19,A14:K17,4)</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4">
+        <v>4</v>
+      </c>
+      <c r="F28" s="4">
+        <v>5</v>
+      </c>
+      <c r="G28" s="4">
+        <v>6</v>
+      </c>
+      <c r="H28" s="4">
+        <v>7</v>
+      </c>
+      <c r="I28" s="4">
+        <v>8</v>
+      </c>
+      <c r="J28" s="4">
+        <v>9</v>
+      </c>
+      <c r="K28" s="4">
+        <v>10</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" t="str">
+        <f>HLOOKUP(N28,A28:K31,2)</f>
+        <v>VINOD</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" s="4" t="str">
+        <f>HLOOKUP(N28,A28:K31,3)</f>
+        <v>MANAGER</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="4">
+        <v>15000</v>
+      </c>
+      <c r="C31" s="4">
+        <v>12000</v>
+      </c>
+      <c r="D31" s="4">
+        <v>16000</v>
+      </c>
+      <c r="E31" s="4">
+        <v>14500</v>
+      </c>
+      <c r="F31" s="4">
+        <v>15400</v>
+      </c>
+      <c r="G31" s="4">
         <v>12800</v>
       </c>
+      <c r="H31" s="4">
+        <v>17500</v>
+      </c>
+      <c r="I31" s="4">
+        <v>16500</v>
+      </c>
+      <c r="J31" s="4">
+        <v>14500</v>
+      </c>
+      <c r="K31" s="4">
+        <v>13000</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31">
+        <f>HLOOKUP(N28,A28:K31,4)</f>
+        <v>15400</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D11">
-    <sortState ref="A2:D11">
+  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
       <sortCondition ref="A1:A11"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2712,7 +3566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2741,7 +3595,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2770,7 +3624,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2799,7 +3653,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2828,7 +3682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2857,7 +3711,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2886,7 +3740,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2915,7 +3769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2944,7 +3798,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
         <v>30</v>
       </c>
@@ -2958,7 +3812,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O11" t="s">
         <v>73</v>
       </c>
@@ -2966,7 +3820,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O12" t="s">
         <v>74</v>
       </c>
@@ -2980,557 +3834,600 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>10</v>
       </c>
-      <c r="C1" s="17">
+      <c r="C1" s="13">
         <v>10</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="14">
         <v>10</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="15">
         <v>10</v>
       </c>
-      <c r="I1" s="20">
+      <c r="H1" s="25">
+        <v>10</v>
+      </c>
+      <c r="I1" s="16">
         <v>0.1</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="9">
         <v>10</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="13">
         <v>20</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="14">
         <v>20</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="15">
         <v>20</v>
       </c>
-      <c r="I2" s="20">
+      <c r="H2" s="25">
+        <v>20</v>
+      </c>
+      <c r="I2" s="16">
         <v>0.2</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="9">
         <v>20</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="17">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="13">
         <v>50</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <v>50</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="15">
         <v>50</v>
       </c>
-      <c r="I3" s="20">
+      <c r="H3" s="25">
+        <v>30</v>
+      </c>
+      <c r="I3" s="16">
         <v>0.5</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="9">
         <v>50</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="17">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>60</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="13">
         <v>60</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>60</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="15">
         <v>60</v>
       </c>
-      <c r="I4" s="20">
+      <c r="H4" s="25">
+        <v>40</v>
+      </c>
+      <c r="I4" s="16">
         <v>0.6</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="9">
         <v>60</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="17">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>40</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="13">
         <v>40</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>40</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="15">
         <v>40</v>
       </c>
-      <c r="I5" s="20">
+      <c r="H5" s="25">
+        <v>50</v>
+      </c>
+      <c r="I5" s="16">
         <v>0.4</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="9">
         <v>40</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="17">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G5">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K5">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="7" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>200</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>200</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="4">
         <v>200</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="4">
         <v>200</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <v>200</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="4">
         <v>200</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <v>200</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="4">
         <v>200</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>500</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>500</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>500</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>500</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>500</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>500</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>500</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <v>500</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>600</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>600</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>600</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>600</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>600</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>600</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>600</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>600</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>700</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>700</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>700</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>700</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>700</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>700</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>700</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <v>700</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>800</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>800</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>800</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>800</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>800</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="4">
         <v>800</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>800</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>800</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>900</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>900</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>900</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>900</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>900</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>900</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>900</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>900</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>500</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>500</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>500</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>500</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>500</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="4">
         <v>500</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>500</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>500</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>400</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>400</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>400</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>400</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <v>400</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>400</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>400</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>400</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>600</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>600</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>600</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>600</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <v>600</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="4">
         <v>600</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <v>600</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="4">
         <v>600</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C10">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
       <formula>550</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D10">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>550</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E10">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="between">
       <formula>375</formula>
       <formula>725</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="between">
       <formula>300</formula>
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F10">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:N3">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:N7">
-    <cfRule type="uniqueValues" dxfId="0" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G10">
     <cfRule type="dataBar" priority="3">
